--- a/STRING.xlsx
+++ b/STRING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8220"/>
+    <workbookView windowWidth="20475" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>S.NO</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>https://github.com/PSRIMATHI205/Leetcode/blob/master/DAY%202/Remove%20paranthesis.txt</t>
+  </si>
+  <si>
+    <t>Reverse string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/submissions/1873125846/</t>
+  </si>
+  <si>
+    <t>Valid anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/submissions/1873218438/</t>
   </si>
 </sst>
 </file>
@@ -90,11 +102,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -536,19 +548,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,7 +570,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,9 +694,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1032,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.2857142857143" customWidth="1"/>
@@ -1076,7 +1091,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1090,11 +1105,39 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1103,6 +1146,8 @@
     <hyperlink ref="D2" r:id="rId2" display="https://leetcode.com/problems/reverse-words-in-a-string"/>
     <hyperlink ref="D3" r:id="rId3" display="https://leetcode.com/problems/remove-outermost-parentheses/submissions/1859076901/"/>
     <hyperlink ref="E3" r:id="rId4" display="https://github.com/PSRIMATHI205/Leetcode/blob/master/DAY%202/Remove%20paranthesis.txt"/>
+    <hyperlink ref="D4" r:id="rId5" display="https://leetcode.com/problems/reverse-string/submissions/1873125846/"/>
+    <hyperlink ref="D5" r:id="rId6" display="https://leetcode.com/problems/valid-anagram/submissions/1873218438/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
